--- a/Modified_KAT2324.xlsx
+++ b/Modified_KAT2324.xlsx
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>45227</v>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45229</v>
@@ -896,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>45231</v>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>45234</v>
@@ -1092,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>45236</v>
@@ -1188,7 +1188,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>45238</v>
@@ -1286,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>45240</v>
@@ -1388,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>45242</v>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>45244</v>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>45245</v>
@@ -1694,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>45248</v>
@@ -1796,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>45250</v>
@@ -1894,7 +1894,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>45252</v>
@@ -1992,7 +1992,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>45254</v>
@@ -2090,7 +2090,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>45256</v>
@@ -2192,7 +2192,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>45258</v>
@@ -2290,7 +2290,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45260</v>
@@ -2388,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>45262</v>
@@ -2488,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>45266</v>
@@ -2586,7 +2586,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>45268</v>
@@ -2688,7 +2688,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>45271</v>
@@ -2790,7 +2790,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>45274</v>
@@ -2892,7 +2892,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>45276</v>
@@ -2990,7 +2990,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>45278</v>
@@ -3092,7 +3092,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>45280</v>
@@ -3194,7 +3194,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>45281</v>
@@ -3291,7 +3291,9 @@
       <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
       <c r="C29" s="2" t="n">
         <v>45283</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>45286</v>
@@ -3450,7 +3452,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>45288</v>
@@ -3548,7 +3550,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>45290</v>
@@ -3646,7 +3648,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>45292</v>
@@ -3846,7 +3848,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>45296</v>
@@ -3948,7 +3950,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>45298</v>
@@ -4050,7 +4052,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>45300</v>
@@ -4152,7 +4154,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>45301</v>
@@ -4254,7 +4256,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>45303</v>
@@ -4352,7 +4354,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>45305</v>
@@ -4450,7 +4452,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>45308</v>
@@ -4552,7 +4554,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>45309</v>
@@ -4650,7 +4652,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>45311</v>
@@ -4748,7 +4750,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>45313</v>
@@ -4846,7 +4848,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>45315</v>
@@ -4948,7 +4950,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>45316</v>
@@ -5050,7 +5052,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>45318</v>
@@ -5152,7 +5154,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>45320</v>
@@ -5254,7 +5256,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>45322</v>
@@ -5352,7 +5354,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>45324</v>
@@ -5450,7 +5452,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>45326</v>
@@ -5548,7 +5550,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>45328</v>
@@ -5650,7 +5652,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>45330</v>
@@ -5752,7 +5754,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>45334</v>
@@ -5854,7 +5856,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>45335</v>
@@ -5958,7 +5960,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>45337</v>
@@ -6060,7 +6062,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>45345</v>
@@ -6158,7 +6160,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>45346</v>
@@ -6255,7 +6257,9 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>32</v>
+      </c>
       <c r="C59" s="2" t="n">
         <v>45349</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>45350</v>
@@ -6404,7 +6408,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>45352</v>
@@ -6502,7 +6506,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>45354</v>
@@ -6600,7 +6604,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>45355</v>
@@ -6699,7 +6703,9 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr"/>
+      <c r="B64" t="n">
+        <v>32</v>
+      </c>
       <c r="C64" s="2" t="n">
         <v>45358</v>
       </c>
@@ -6755,7 +6761,9 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr"/>
+      <c r="B65" t="n">
+        <v>32</v>
+      </c>
       <c r="C65" s="2" t="n">
         <v>45359</v>
       </c>
@@ -6811,7 +6819,9 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr"/>
+      <c r="B66" t="n">
+        <v>32</v>
+      </c>
       <c r="C66" s="2" t="n">
         <v>45361</v>
       </c>
@@ -6867,7 +6877,9 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr"/>
+      <c r="B67" t="n">
+        <v>32</v>
+      </c>
       <c r="C67" s="2" t="n">
         <v>45363</v>
       </c>
@@ -6923,7 +6935,9 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>32</v>
+      </c>
       <c r="C68" s="2" t="n">
         <v>45367</v>
       </c>
@@ -6979,7 +6993,9 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr"/>
+      <c r="B69" t="n">
+        <v>32</v>
+      </c>
       <c r="C69" s="2" t="n">
         <v>45369</v>
       </c>
@@ -7035,7 +7051,9 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" t="inlineStr"/>
+      <c r="B70" t="n">
+        <v>32</v>
+      </c>
       <c r="C70" s="2" t="n">
         <v>45370</v>
       </c>
@@ -7087,7 +7105,9 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>32</v>
+      </c>
       <c r="C71" s="2" t="n">
         <v>45373</v>
       </c>
@@ -7139,7 +7159,9 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" t="inlineStr"/>
+      <c r="B72" t="n">
+        <v>32</v>
+      </c>
       <c r="C72" s="2" t="n">
         <v>45375</v>
       </c>
@@ -7191,7 +7213,9 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr"/>
+      <c r="B73" t="n">
+        <v>32</v>
+      </c>
       <c r="C73" s="2" t="n">
         <v>45378</v>
       </c>
@@ -7243,7 +7267,9 @@
       <c r="A74" t="n">
         <v>73</v>
       </c>
-      <c r="B74" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>32</v>
+      </c>
       <c r="C74" s="2" t="n">
         <v>45380</v>
       </c>
@@ -7299,7 +7325,9 @@
       <c r="A75" t="n">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>32</v>
+      </c>
       <c r="C75" s="2" t="n">
         <v>45382</v>
       </c>
@@ -7351,7 +7379,9 @@
       <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr"/>
+      <c r="B76" t="n">
+        <v>32</v>
+      </c>
       <c r="C76" s="2" t="n">
         <v>45384</v>
       </c>
@@ -7403,7 +7433,9 @@
       <c r="A77" t="n">
         <v>76</v>
       </c>
-      <c r="B77" t="inlineStr"/>
+      <c r="B77" t="n">
+        <v>32</v>
+      </c>
       <c r="C77" s="2" t="n">
         <v>45385</v>
       </c>
@@ -7455,7 +7487,9 @@
       <c r="A78" t="n">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr"/>
+      <c r="B78" t="n">
+        <v>32</v>
+      </c>
       <c r="C78" s="2" t="n">
         <v>45387</v>
       </c>
@@ -7511,7 +7545,9 @@
       <c r="A79" t="n">
         <v>78</v>
       </c>
-      <c r="B79" t="inlineStr"/>
+      <c r="B79" t="n">
+        <v>32</v>
+      </c>
       <c r="C79" s="2" t="n">
         <v>45389</v>
       </c>
@@ -7567,7 +7603,9 @@
       <c r="A80" t="n">
         <v>79</v>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>32</v>
+      </c>
       <c r="C80" s="2" t="n">
         <v>45391</v>
       </c>
@@ -7619,7 +7657,9 @@
       <c r="A81" t="n">
         <v>80</v>
       </c>
-      <c r="B81" t="inlineStr"/>
+      <c r="B81" t="n">
+        <v>32</v>
+      </c>
       <c r="C81" s="2" t="n">
         <v>45392</v>
       </c>
@@ -7676,7 +7716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>45394</v>
@@ -7774,7 +7814,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>45396</v>
